--- a/SEMINARIO/Propuesta de negocio/Formulario propuestas de negocios.xlsx
+++ b/SEMINARIO/Propuesta de negocio/Formulario propuestas de negocios.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franco\Downloads\5TO\SEMINARIO\Propuesta de negocio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Franc\Downloads\5TO\SEMINARIO\Propuesta de negocio\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8DA740B-A09A-4EDB-81A2-8DF8BBC7CDF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{685D7460-3115-4EB5-A44A-C8C34CF5FC9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Caratula" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="40">
   <si>
     <t>Apellido y nombre del alumno:</t>
   </si>
@@ -63,6 +63,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Mercado Objetivo</t>
     </r>
@@ -71,6 +72,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>:</t>
     </r>
@@ -83,6 +85,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Propuesta de valor - Descripcion de lineas de productos y/o servicios</t>
     </r>
@@ -91,6 +94,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -106,6 +110,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t>Breve descripcion del negocio</t>
     </r>
@@ -114,6 +119,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
       <t xml:space="preserve">: </t>
     </r>
@@ -156,89 +162,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
-      </rPr>
-      <t>Propuesta de valor - Descripcion de lineas de productos y/o servicios</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: Se ofrecera el servicio de gestion de armado de computadoras a medida para tiendas de hardware, estas se beneficiaran a traves de su a través de su principal diferenciador que son los </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>presupuestos inteligente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">s los cuales permiten a los empleados de la tienda poder crear el </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>presupuesto de la computadora</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> en base a la </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>cantidad de dinero del cliente</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> (como pueden ser 100000 pesos) y su </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>tipo de uso</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> (como pueden ser: ofimática, diseño en 3D, videojuegos o edición de video), resultandonos en los siguientes beneficios para las tiendas y para los clientes:
-</t>
+      <t>Breve descripcion del negocio</t>
     </r>
     <r>
       <rPr>
@@ -247,11 +173,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">       - Permite que la tienda le entregue los presupuestos a sus clientes de una forma más rápida y de mayor calidad tanto en la precisión del presupuesto como en la eficacia del proceso de venta.
-       - Se reduce el error humano por parte de los empleados de la tienda aumentando la precisión con la que se hacen los presupuestos y al ser automatizado mejorara la velocidad de su creación, optimizando las tareas operativas de los empleados, ya que se gestiona tanto el stock de cada uno de componentes como su compatibilidad a la hora de armar el presupuesto de forma automatica.
-       - A los clientes les resultará mucho más fácil indicar sus necesidades ya que
-solamente indicando el uso que le dará a la computadora y cuanto está dispuesto a gastar, se le creará el presupuesto correcto para este adaptándose a sus necesidades y su presupuesto.
-</t>
+      <t>:</t>
     </r>
   </si>
   <si>
@@ -262,16 +184,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
-      <t>Breve descripcion del negocio</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve">: es una empresa que brinda soluciones de software </t>
+      <t>Mercado Objetivo</t>
     </r>
     <r>
       <rPr>
@@ -280,15 +195,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>orientada</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t xml:space="preserve"> a la creacion y mantenimiento de servicios para tiendas de hardware.</t>
+      <t xml:space="preserve">: </t>
     </r>
   </si>
   <si>
@@ -299,22 +206,9 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
+        <family val="2"/>
       </rPr>
-      <t>Mercado Objetivo</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-      </rPr>
-      <t>: El mercado objetivo definido es un mercado concentrado constituido por todos los locales de ventas de hardware ubicados en la ciudad de buenos aires debido a que en esta zona se radican la mayor cantidad de locales y también los de mayor envergadura tanto en volumen de ventas como de publico, ademas de que nuestros principales clientes se encuentran dentro de esta area geografica y tambien nos ayudara inicialmente a poder brindar soporte de forma eficiente, pero dado que nuestro servicio es online, en el futuro se puede expandir hacia el resto de la argentina sin ningún inconveniente y utilizando cambios de moneda correspondientes junto con los tipos habituales de uso para su armado se puede escalar hacia el resto del mundo.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fuente de Ingresos:
-- </t>
+      <t>Propuesta de valor - Descripcion de lineas de productos y/o servicios</t>
     </r>
     <r>
       <rPr>
@@ -323,29 +217,39 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">pago a traves de suscripcion.
+      <t xml:space="preserve">:
 </t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Estructura de Costos: 
-- </t>
-    </r>
+    <t>Propuesta tecnologica:</t>
+  </si>
+  <si>
     <r>
       <rPr>
+        <b/>
+        <u/>
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>infraestructura tecnologia.
-- pago de recursos humanos.</t>
+      <t>Propuesta tecnologica:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Canales:
+      <t xml:space="preserve">Relacion con los clientes:
 </t>
     </r>
     <r>
@@ -355,7 +259,7 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>- Boca a boca.</t>
+      <t>- Periodo de prueba del servicio y posterior calificacion.</t>
     </r>
     <r>
       <rPr>
@@ -375,7 +279,115 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>Redes sociales</t>
+      <t>Social media.
+- Soporte a usuarios.
+- Contacto formal via mail.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Segmentos de clientes:
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Tiendas de hardware</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">que:
+    - Tienen problemas de organizacion en sus procesos internos.
+     - Buscan un aumento en el numero de ventas.
+     - Buscan una opmimizacion en sus procesos internos.
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Propuesta de valor:
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Llevar todo el complejo proceso de armado de una computadora a medida de punta a punta de forma trazable y digital de forma automatica resultando en un aumento en las ventas y fidelizacion del cliente para con la tienda.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Actividades Clave: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Desarrollo del servicio y soporte.
+- Presentacion y entrega de prueba gratuita al cliente.
+- Evaluacion del producto.
+- Proceso de venta de suscripcion.
+- Marketing.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Asociados Clave: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Tiendas de hardware.
+- Proovedores de pago en linea.
+- Webs de benchmarking para componentes, programas y juegos.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Recursos Clave: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>- Equipo de trabajo multidisciplinario para el desarrollo.
+- Plataforma tecnologica.
+- Tiendas de hardware</t>
     </r>
     <r>
       <rPr>
@@ -390,7 +402,7 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Relacion con los clientes:
+      <t xml:space="preserve">Canales:
 </t>
     </r>
     <r>
@@ -400,7 +412,9 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>- Periodo de prueba del servicio.</t>
+      <t>- Aplicacion Mobile.
+- Aplicacion Web.
+- Email</t>
     </r>
     <r>
       <rPr>
@@ -410,131 +424,12 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Redes sociales en instagram y facebook.</t>
+      <t>.</t>
     </r>
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Segmentos de clientes:
- - </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Tiendas de hardware que no adminstran de manera optima sus pedidos y tienen incovenientes a la hora de crearlos ya sea por errores humanos al momento de crear el presupuesto de una computadora y falta de entendimiento con los clientes como errores de stock y organizacion de tareas.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Propuesta tecnologica: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Se desarrollara un software web que contará con los siguientes módulos:
-        - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Creador de presupuesto:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a través de este módulo se permitirá ingresar tanto la cantidad de dinero (como pueden ser 100000 pesos argentinos) como el tipo de uso (como pueden ser: ofimática, diseño en 3D, videojuegos o edición de video) y la aplicación le responderá con los presupuestos más acordes para el cliente.
-        - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Asistente de armado:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a través de este módulo el empleado armara la computadora y también podrán indicar los fallos que tuvieron durante su armado, de esta forma la aplicación le indicara un reemplazo equivalente en calidad y precio para el componente de hardware defectuoso, posteriormente la aplicación registrara la incompatibilidad o mal funcionamiento para poder hacer mejores y más acertados presupuestos a medida que se usa el software, ademas de ello cuando se crea un pedido se asigna de forma automatica a su empleado mas ocioso.
-         - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Asistente de entrega:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> una vez entregada la computadora se registrará dentro de la aplicación y en caso de que el cliente presente algún fallo o mal funcionamiento se registrara también es devolución junto con una incompatibilidad una vez revisada e indicando un reemplazo equivalente en calidad y precio para el componente de hardware defectuoso.
-         - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Gestión de stock:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> a través de este módulo se gestionará todas la entrada y salida de componentes de dentro de las tiendas además de contar con un sistema de notificación para cuando el stock de algún producto se encuentre por debajo de cierto limite </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Propuesta de valor:
+      <t xml:space="preserve">Fuente de Ingresos:
 </t>
     </r>
     <r>
@@ -544,13 +439,18 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">- A traves de nuestro servicio buscamos hacer mas eficiente y automatizar  los procesos mas repetitivos y que conllevan mayor error humano de nuestros clientes, de esta forma mejorariamos y digitalizariamos en forma considerable estos procesos, y junto con ello un aumento en las ventas y fidelizacion del cliente para con la tienda </t>
+      <t xml:space="preserve">- Pago a traves de suscripcion.
+- Versionado de pago en base al tamaño de la tienda.
+</t>
     </r>
   </si>
   <si>
+    <t>EMPRENDIMIENTO PERSONAL</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">Recursos Clave: 
-- </t>
+      <t xml:space="preserve">Estructura de Costos: 
+</t>
     </r>
     <r>
       <rPr>
@@ -559,51 +459,20 @@
         <rFont val="Calibri"/>
         <family val="2"/>
       </rPr>
-      <t>equipo de trabajo multidisciplinari</t>
+      <t>- Infraestructura tecnologia.
+- Pago de recursos humanos.
+- Marketing.</t>
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Actividades Clave: 
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Desarrollo
-- Prueba
-- Presentacion y entrega de prueba gratuita al cliente
-- Proceso de venta de suscripcion</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Asociados Clave: 
-- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Proovedores de pago en linea
-- Tiendas de hardware
-- Webs de benchmarking para componentes, programas y juegos
-</t>
-    </r>
+    <t>Franco Fazzito</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -613,16 +482,19 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -630,23 +502,27 @@
       <sz val="22"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -654,6 +530,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
@@ -662,14 +539,8 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -692,6 +563,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFF7CAAC"/>
         <bgColor rgb="FFF7CAAC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -868,7 +745,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -903,9 +780,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -960,10 +834,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -972,9 +846,26 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -990,6 +881,593 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1311520</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>124558</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B52AF1-8497-4074-B777-57DA7F44F137}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="300404" y="732692"/>
+          <a:ext cx="4887058" cy="1956289"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>La</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> empresa llamada smartAssembly se dedica a la brindar soluciones de software orientado a los locales de venta de hardware. Con este fin realiza trabajos de investigacion sobre el mercado para poder detectar las principales problematicas de nuestros potenciales clientes, y desarrolla diferentes productos que permiten la gestion eficiente y digitalizacion de los procesos dentro de sus locales para poder lograr un aumento en las ventas de estos locales y permitir a las personas el acceso a la tecnologia de una manera mas sencilla y economica.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1282212</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>109904</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E1EF3B0F-DC27-436F-9745-573CDF0D2DE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="322385" y="2930769"/>
+          <a:ext cx="4835769" cy="2307981"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Nuestro mercado</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> objetivo son todos los locales de venta de hardware los cuales tengan la necesidad de mejorar sus procesos manuales y complejos a traves de digitilzacion y automatizacion, mejorando asi sus ganancias y posicionamiento con respecto a la competencia.</a:t>
+          </a:r>
+          <a:endParaRPr lang="es-AR">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1223596</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>622788</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="CuadroTexto 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B6AE69C-7775-459E-B352-8E57B6D228D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="322385" y="5495192"/>
+          <a:ext cx="4777153" cy="3553558"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>Nuestra</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t> empresa ofrecera un servicio de gestion de armado de computadoras a medida, mediante la cual nuestro cliente pueda llevar todo el complejo proceso de armado de una computadora a medida de punta a punta de forma trazable y digital de forma automatica siendo este nuestro principal diferenciador con respecto a otros softwares de gestion no especializados, contando con la posibilidad de:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>- Crear presupuestos de forma automatica en base al presupuesto y tipo de uso del cliente que se acerca a la tienda.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>- Llevar trazabilidad de los procesos de armado y entrega asi como indicar los fallos que tuvieron durante estos y asignar de forma automatica su repuesto.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>- Gestionar el stock de cada uno de los componentes junto con un sistema de notificaciones cada vez que cierto componente este en falta.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t>De esta forma se automatizan los procesos mas complejos de estos locales de venta logrando un aumento en la productividad de los empleados junto con una mejora en el proceso de venta debido al mejor entendimiento de las necesidades del cliente que se acerca a la tienda y mejora del servicio post venta en caso de algun fallo.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>36635</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>212480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1267558</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="CuadroTexto 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{017C6DA7-DD58-4FF8-AD76-B99C840A3744}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="322385" y="9407768"/>
+          <a:ext cx="4821115" cy="3985847"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>Se plantea</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t> una plataforma tanto web como mobile que cuente con los siguientes modulos:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>- Creador de presupuesto: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>a través de este módulo se permitirá ingresar tanto la cantidad de dinero (como pueden ser 100000 pesos argentinos) como el tipo de uso (como pueden ser: ofimática, diseño en 3D, videojuegos o edición de video) y la aplicación le responderá con los presupuestos más acordes para el cliente.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>- Asistente de armado: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>a través de este módulo el empleado armara la computadora y también podrán indicar los fallos que tuvieron durante su armado, de esta forma la plataforma le indicara un reemplazo equivalente en calidad y precio para el componente de hardware defectuoso, posteriormente la aplicación registrara la incompatibilidad o mal funcionamiento para poder hacer mejores y más acertados presupuestos a medida que se usa la</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" baseline="0"/>
+            <a:t> plataforma</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>, ademas de ello cuando se crea un pedido se asigna de forma automatica a su empleado mas ocioso.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>- Asistente de entrega: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>una vez entregada la computadora se registrará dentro de la aplicación y en caso de que el cliente presente algún fallo o mal funcionamiento se registrara también junto con una incompatibilidad una vez revisada e indicando de forma automatica un reemplazo equivalente en calidad y precio para el componente de hardware defectuoso.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100" b="1"/>
+            <a:t>- Gestión de stock: </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="es-AR" sz="1100"/>
+            <a:t>a través de este módulo se gestionarán todas las entradas y salidas de componentes de dentro de las tiendas además de contar con un sistema de notificación para cuando el stock de algún producto se encuentre por debajo de cierto limite.</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19707</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>13138</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1300655</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>131380</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="CuadroTexto 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98F91881-9DDD-4871-99D0-F526021B100B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="308741" y="748862"/>
+          <a:ext cx="4861035" cy="1957552"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>26276</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>13137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1307224</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>118241</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="CuadroTexto 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{940D445B-FF0F-4909-A840-71313416DBAE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="315310" y="2956034"/>
+          <a:ext cx="4861035" cy="2312276"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:endParaRPr lang="es-AR" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1192,11 +1670,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:K1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7:I7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O13" sqref="O13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.125" customWidth="1"/>
     <col min="2" max="26" width="7.75" customWidth="1"/>
@@ -1241,7 +1719,9 @@
     </row>
     <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="11"/>
-      <c r="C5" s="13"/>
+      <c r="C5" s="13" t="s">
+        <v>39</v>
+      </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
@@ -2361,13 +2841,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B1:G1000"/>
+  <dimension ref="B1:J1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30:G47"/>
+    <sheetView showGridLines="0" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="6" width="9.375" customWidth="1"/>
@@ -2375,489 +2855,494 @@
     <col min="8" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="17" t="s">
+    <row r="1" spans="2:10" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="2:10" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
-    </row>
-    <row r="3" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="45" t="s">
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="51"/>
+      <c r="H2" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48"/>
+    </row>
+    <row r="3" spans="2:10" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
+    </row>
+    <row r="5" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
+    </row>
+    <row r="12" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
+    </row>
+    <row r="13" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="2:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="38" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
-    </row>
-    <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
-    </row>
-    <row r="6" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
-    </row>
-    <row r="7" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
-    </row>
-    <row r="8" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
-    </row>
-    <row r="9" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
-    </row>
-    <row r="10" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
-    </row>
-    <row r="11" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
-    </row>
-    <row r="12" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
-    </row>
-    <row r="13" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
-    </row>
-    <row r="14" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-    </row>
-    <row r="15" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
-    </row>
-    <row r="16" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="45" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
+    </row>
+    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
+    </row>
+    <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
+    </row>
+    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
-    </row>
-    <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
-    </row>
-    <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
-    </row>
-    <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
-    </row>
-    <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
-    </row>
-    <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
-    </row>
-    <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
-    </row>
-    <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
-    </row>
-    <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
-    </row>
-    <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
-    </row>
-    <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
-    </row>
-    <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
-    </row>
-    <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
-    </row>
-    <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-    </row>
-    <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="45" t="s">
-        <v>24</v>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
+    </row>
+    <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
+    </row>
+    <row r="33" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
+    </row>
+    <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
+    </row>
+    <row r="43" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
+    </row>
+    <row r="44" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="2:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B47" s="22"/>
+      <c r="C47" s="28"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B48" s="45" t="s">
+        <v>27</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
-    </row>
-    <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
-    </row>
-    <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
-    </row>
-    <row r="33" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
-    </row>
-    <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
-    </row>
-    <row r="35" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
-    </row>
-    <row r="36" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
-    </row>
-    <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
-    </row>
-    <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
-    </row>
-    <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
-    </row>
-    <row r="40" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
-    </row>
-    <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
-    </row>
-    <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
-    </row>
-    <row r="43" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
-    </row>
-    <row r="44" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
-    </row>
-    <row r="45" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
-    </row>
-    <row r="46" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
-    </row>
-    <row r="47" spans="2:7" ht="60.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="23"/>
-      <c r="C47" s="29"/>
-      <c r="D47" s="29"/>
-      <c r="E47" s="29"/>
-      <c r="F47" s="29"/>
-      <c r="G47" s="25"/>
-    </row>
-    <row r="48" spans="2:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="30" t="s">
-        <v>32</v>
-      </c>
-      <c r="C48" s="31"/>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="32"/>
+      <c r="C48" s="30"/>
+      <c r="D48" s="30"/>
+      <c r="E48" s="30"/>
+      <c r="F48" s="30"/>
+      <c r="G48" s="31"/>
     </row>
     <row r="49" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="33"/>
-      <c r="C49" s="34"/>
-      <c r="D49" s="34"/>
-      <c r="E49" s="34"/>
-      <c r="F49" s="34"/>
-      <c r="G49" s="35"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="34"/>
     </row>
     <row r="50" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="33"/>
-      <c r="C50" s="34"/>
-      <c r="D50" s="34"/>
-      <c r="E50" s="34"/>
-      <c r="F50" s="34"/>
-      <c r="G50" s="35"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="34"/>
     </row>
     <row r="51" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="33"/>
-      <c r="C51" s="34"/>
-      <c r="D51" s="34"/>
-      <c r="E51" s="34"/>
-      <c r="F51" s="34"/>
-      <c r="G51" s="35"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="33"/>
+      <c r="G51" s="34"/>
     </row>
     <row r="52" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="33"/>
-      <c r="C52" s="34"/>
-      <c r="D52" s="34"/>
-      <c r="E52" s="34"/>
-      <c r="F52" s="34"/>
-      <c r="G52" s="35"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="33"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="33"/>
+      <c r="G52" s="34"/>
     </row>
     <row r="53" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="33"/>
-      <c r="C53" s="34"/>
-      <c r="D53" s="34"/>
-      <c r="E53" s="34"/>
-      <c r="F53" s="34"/>
-      <c r="G53" s="35"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="33"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="33"/>
+      <c r="G53" s="34"/>
     </row>
     <row r="54" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="33"/>
-      <c r="C54" s="34"/>
-      <c r="D54" s="34"/>
-      <c r="E54" s="34"/>
-      <c r="F54" s="34"/>
-      <c r="G54" s="35"/>
+      <c r="B54" s="32"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="33"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="33"/>
+      <c r="G54" s="34"/>
     </row>
     <row r="55" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="33"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="34"/>
-      <c r="E55" s="34"/>
-      <c r="F55" s="34"/>
-      <c r="G55" s="35"/>
+      <c r="B55" s="32"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="33"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="33"/>
+      <c r="G55" s="34"/>
     </row>
     <row r="56" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="33"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34"/>
-      <c r="E56" s="34"/>
-      <c r="F56" s="34"/>
-      <c r="G56" s="35"/>
+      <c r="B56" s="32"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="33"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="33"/>
+      <c r="G56" s="34"/>
     </row>
     <row r="57" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="33"/>
-      <c r="C57" s="34"/>
-      <c r="D57" s="34"/>
-      <c r="E57" s="34"/>
-      <c r="F57" s="34"/>
-      <c r="G57" s="35"/>
+      <c r="B57" s="32"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="33"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="33"/>
+      <c r="G57" s="34"/>
     </row>
     <row r="58" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="33"/>
-      <c r="C58" s="34"/>
-      <c r="D58" s="34"/>
-      <c r="E58" s="34"/>
-      <c r="F58" s="34"/>
-      <c r="G58" s="35"/>
+      <c r="B58" s="32"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="34"/>
     </row>
     <row r="59" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="33"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="35"/>
-    </row>
-    <row r="60" spans="2:7" ht="127.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="33"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34"/>
-      <c r="E60" s="34"/>
-      <c r="F60" s="34"/>
-      <c r="G60" s="35"/>
+      <c r="B59" s="32"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="34"/>
+    </row>
+    <row r="60" spans="2:7" ht="133.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="32"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="33"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="33"/>
+      <c r="G60" s="34"/>
     </row>
     <row r="61" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B61" s="36"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="37"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="37"/>
-      <c r="G61" s="38"/>
+      <c r="B61" s="35"/>
+      <c r="C61" s="36"/>
+      <c r="D61" s="36"/>
+      <c r="E61" s="36"/>
+      <c r="F61" s="36"/>
+      <c r="G61" s="37"/>
     </row>
     <row r="62" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3799,7 +4284,8 @@
     <row r="999" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
+    <mergeCell ref="H2:J2"/>
     <mergeCell ref="B2:G2"/>
     <mergeCell ref="B4:G15"/>
     <mergeCell ref="B16:G29"/>
@@ -3808,6 +4294,7 @@
   </mergeCells>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -3815,11 +4302,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:G1000"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B48" sqref="B48:G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="6" width="9.375" customWidth="1"/>
@@ -3840,105 +4327,105 @@
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="2:7" ht="28.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="38" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="8"/>
@@ -4052,7 +4539,7 @@
       <c r="G29" s="16"/>
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="38" t="s">
         <v>11</v>
       </c>
       <c r="C30" s="8"/>
@@ -4198,7 +4685,7 @@
       <c r="G47" s="16"/>
     </row>
     <row r="48" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="45" t="s">
         <v>12</v>
       </c>
       <c r="C48" s="8"/>
@@ -5267,11 +5754,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:G1000"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4:G15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:G29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="3.75" customWidth="1"/>
     <col min="2" max="6" width="9.375" customWidth="1"/>
@@ -5292,476 +5779,476 @@
     </row>
     <row r="3" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="4" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="21"/>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="22"/>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="21"/>
     </row>
     <row r="5" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="24"/>
-      <c r="E5" s="24"/>
-      <c r="F5" s="24"/>
-      <c r="G5" s="25"/>
+      <c r="B5" s="22"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="24"/>
     </row>
     <row r="6" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="25"/>
+      <c r="B6" s="22"/>
+      <c r="C6" s="23"/>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="24"/>
     </row>
     <row r="7" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="25"/>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="G7" s="24"/>
     </row>
     <row r="8" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="25"/>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="24"/>
     </row>
     <row r="9" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="25"/>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="24"/>
     </row>
     <row r="10" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="25"/>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="24"/>
     </row>
     <row r="11" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23"/>
-      <c r="C11" s="24"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="25"/>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="24"/>
     </row>
     <row r="12" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="25"/>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="24"/>
     </row>
     <row r="13" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
-      <c r="C13" s="24"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="25"/>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="24"/>
     </row>
     <row r="14" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
-      <c r="C14" s="24"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
     </row>
     <row r="15" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="26"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="28"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="27"/>
     </row>
     <row r="16" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="21"/>
-      <c r="G16" s="22"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="21"/>
     </row>
     <row r="17" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="23"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="25"/>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="24"/>
     </row>
     <row r="18" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="23"/>
-      <c r="C18" s="24"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25"/>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="24"/>
     </row>
     <row r="19" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="23"/>
-      <c r="C19" s="24"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="25"/>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="24"/>
     </row>
     <row r="20" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25"/>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="24"/>
     </row>
     <row r="21" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="23"/>
-      <c r="C21" s="24"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25"/>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="23"/>
+      <c r="G21" s="24"/>
     </row>
     <row r="22" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="23"/>
-      <c r="C22" s="24"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="25"/>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="23"/>
-      <c r="C23" s="24"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="25"/>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="24"/>
     </row>
     <row r="24" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="23"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="25"/>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="24"/>
     </row>
     <row r="25" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="24"/>
     </row>
     <row r="26" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="24"/>
-      <c r="G26" s="25"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="24"/>
     </row>
     <row r="27" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
-      <c r="G27" s="25"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="24"/>
     </row>
     <row r="28" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="24"/>
     </row>
     <row r="29" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="26"/>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
+      <c r="B29" s="25"/>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="27"/>
     </row>
     <row r="30" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="20" t="s">
+      <c r="B30" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="C30" s="21"/>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="21"/>
-      <c r="G30" s="22"/>
+      <c r="C30" s="20"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21"/>
     </row>
     <row r="31" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="23"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24"/>
-      <c r="G31" s="25"/>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="23"/>
+      <c r="G31" s="24"/>
     </row>
     <row r="32" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="23"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="E32" s="24"/>
-      <c r="F32" s="24"/>
-      <c r="G32" s="25"/>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="23"/>
+      <c r="G32" s="24"/>
     </row>
     <row r="33" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="23"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="E33" s="24"/>
-      <c r="F33" s="24"/>
-      <c r="G33" s="25"/>
+      <c r="B33" s="22"/>
+      <c r="C33" s="23"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="24"/>
     </row>
     <row r="34" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="23"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="E34" s="24"/>
-      <c r="F34" s="24"/>
-      <c r="G34" s="25"/>
+      <c r="B34" s="22"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="24"/>
     </row>
     <row r="35" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="23"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="E35" s="24"/>
-      <c r="F35" s="24"/>
-      <c r="G35" s="25"/>
+      <c r="B35" s="22"/>
+      <c r="C35" s="23"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="23"/>
+      <c r="G35" s="24"/>
     </row>
     <row r="36" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="23"/>
-      <c r="C36" s="24"/>
-      <c r="D36" s="24"/>
-      <c r="E36" s="24"/>
-      <c r="F36" s="24"/>
-      <c r="G36" s="25"/>
+      <c r="B36" s="22"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="23"/>
+      <c r="G36" s="24"/>
     </row>
     <row r="37" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
-      <c r="C37" s="24"/>
-      <c r="D37" s="24"/>
-      <c r="E37" s="24"/>
-      <c r="F37" s="24"/>
-      <c r="G37" s="25"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="23"/>
+      <c r="G37" s="24"/>
     </row>
     <row r="38" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="23"/>
-      <c r="C38" s="24"/>
-      <c r="D38" s="24"/>
-      <c r="E38" s="24"/>
-      <c r="F38" s="24"/>
-      <c r="G38" s="25"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="23"/>
+      <c r="G38" s="24"/>
     </row>
     <row r="39" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="23"/>
-      <c r="C39" s="24"/>
-      <c r="D39" s="24"/>
-      <c r="E39" s="24"/>
-      <c r="F39" s="24"/>
-      <c r="G39" s="25"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
+      <c r="D39" s="23"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="24"/>
     </row>
     <row r="40" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="23"/>
-      <c r="C40" s="24"/>
-      <c r="D40" s="24"/>
-      <c r="E40" s="24"/>
-      <c r="F40" s="24"/>
-      <c r="G40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="23"/>
+      <c r="G40" s="24"/>
     </row>
     <row r="41" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="23"/>
-      <c r="C41" s="24"/>
-      <c r="D41" s="24"/>
-      <c r="E41" s="24"/>
-      <c r="F41" s="24"/>
-      <c r="G41" s="25"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="23"/>
+      <c r="G41" s="24"/>
     </row>
     <row r="42" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="23"/>
-      <c r="C42" s="24"/>
-      <c r="D42" s="24"/>
-      <c r="E42" s="24"/>
-      <c r="F42" s="24"/>
-      <c r="G42" s="25"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="23"/>
+      <c r="D42" s="23"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="23"/>
+      <c r="G42" s="24"/>
     </row>
     <row r="43" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="25"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="23"/>
+      <c r="G43" s="24"/>
     </row>
     <row r="44" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="23"/>
-      <c r="C44" s="24"/>
-      <c r="D44" s="24"/>
-      <c r="E44" s="24"/>
-      <c r="F44" s="24"/>
-      <c r="G44" s="25"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="23"/>
+      <c r="D44" s="23"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="23"/>
+      <c r="G44" s="24"/>
     </row>
     <row r="45" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="23"/>
-      <c r="C45" s="24"/>
-      <c r="D45" s="24"/>
-      <c r="E45" s="24"/>
-      <c r="F45" s="24"/>
-      <c r="G45" s="25"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="23"/>
+      <c r="G45" s="24"/>
     </row>
     <row r="46" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="23"/>
-      <c r="C46" s="24"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
-      <c r="F46" s="24"/>
-      <c r="G46" s="25"/>
+      <c r="B46" s="22"/>
+      <c r="C46" s="23"/>
+      <c r="D46" s="23"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="23"/>
+      <c r="G46" s="24"/>
     </row>
     <row r="47" spans="2:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="27"/>
-      <c r="E47" s="27"/>
-      <c r="F47" s="27"/>
-      <c r="G47" s="28"/>
+      <c r="B47" s="25"/>
+      <c r="C47" s="26"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="27"/>
     </row>
     <row r="48" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="30" t="s">
-        <v>12</v>
+      <c r="B48" s="29" t="s">
+        <v>28</v>
       </c>
-      <c r="C48" s="21"/>
-      <c r="D48" s="21"/>
-      <c r="E48" s="21"/>
-      <c r="F48" s="21"/>
-      <c r="G48" s="22"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="23"/>
-      <c r="C49" s="24"/>
-      <c r="D49" s="24"/>
-      <c r="E49" s="24"/>
-      <c r="F49" s="24"/>
-      <c r="G49" s="25"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="23"/>
+      <c r="D49" s="23"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="23"/>
+      <c r="G49" s="24"/>
     </row>
     <row r="50" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="23"/>
-      <c r="C50" s="24"/>
-      <c r="D50" s="24"/>
-      <c r="E50" s="24"/>
-      <c r="F50" s="24"/>
-      <c r="G50" s="25"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="23"/>
+      <c r="D50" s="23"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="23"/>
+      <c r="G50" s="24"/>
     </row>
     <row r="51" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="23"/>
-      <c r="C51" s="24"/>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="25"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="23"/>
+      <c r="D51" s="23"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="23"/>
+      <c r="G51" s="24"/>
     </row>
     <row r="52" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="23"/>
-      <c r="C52" s="24"/>
-      <c r="D52" s="24"/>
-      <c r="E52" s="24"/>
-      <c r="F52" s="24"/>
-      <c r="G52" s="25"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="23"/>
+      <c r="D52" s="23"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="23"/>
+      <c r="G52" s="24"/>
     </row>
     <row r="53" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="23"/>
-      <c r="C53" s="24"/>
-      <c r="D53" s="24"/>
-      <c r="E53" s="24"/>
-      <c r="F53" s="24"/>
-      <c r="G53" s="25"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="23"/>
+      <c r="D53" s="23"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="23"/>
+      <c r="G53" s="24"/>
     </row>
     <row r="54" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="23"/>
-      <c r="C54" s="24"/>
-      <c r="D54" s="24"/>
-      <c r="E54" s="24"/>
-      <c r="F54" s="24"/>
-      <c r="G54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="23"/>
+      <c r="D54" s="23"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="23"/>
+      <c r="G54" s="24"/>
     </row>
     <row r="55" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="23"/>
-      <c r="C55" s="24"/>
-      <c r="D55" s="24"/>
-      <c r="E55" s="24"/>
-      <c r="F55" s="24"/>
-      <c r="G55" s="25"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="24"/>
     </row>
     <row r="56" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="23"/>
-      <c r="C56" s="24"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="24"/>
-      <c r="F56" s="24"/>
-      <c r="G56" s="25"/>
+      <c r="B56" s="22"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="24"/>
     </row>
     <row r="57" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="23"/>
-      <c r="C57" s="24"/>
-      <c r="D57" s="24"/>
-      <c r="E57" s="24"/>
-      <c r="F57" s="24"/>
-      <c r="G57" s="25"/>
+      <c r="B57" s="22"/>
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="24"/>
     </row>
     <row r="58" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="24"/>
-      <c r="G58" s="25"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="23"/>
+      <c r="G58" s="24"/>
     </row>
     <row r="59" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="24"/>
-      <c r="G59" s="25"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="23"/>
+      <c r="G59" s="24"/>
     </row>
     <row r="60" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="24"/>
-      <c r="G60" s="25"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
     </row>
     <row r="61" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="24"/>
-      <c r="G61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="23"/>
+      <c r="G61" s="24"/>
     </row>
     <row r="62" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="63" spans="2:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6712,6 +7199,7 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -6719,784 +7207,786 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="B1:K1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:C23"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13:I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.5" customWidth="1"/>
-    <col min="2" max="26" width="9.375" customWidth="1"/>
+    <col min="2" max="10" width="9.375" customWidth="1"/>
+    <col min="11" max="11" width="15.5" customWidth="1"/>
+    <col min="12" max="26" width="9.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="40" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="42"/>
-      <c r="D1" s="42"/>
-      <c r="E1" s="42"/>
-      <c r="F1" s="42"/>
-      <c r="G1" s="42"/>
-      <c r="H1" s="42"/>
-      <c r="I1" s="42"/>
-      <c r="J1" s="42"/>
-      <c r="K1" s="43"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="42"/>
     </row>
     <row r="2" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="21"/>
+      <c r="D3" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="21"/>
+      <c r="F3" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="G3" s="21"/>
+      <c r="H3" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="21"/>
+      <c r="J3" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="21"/>
+    </row>
+    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="22"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="22"/>
+      <c r="K4" s="24"/>
+    </row>
+    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="22"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="24"/>
+    </row>
+    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="22"/>
+      <c r="C6" s="24"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="22"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="22"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="22"/>
+      <c r="K6" s="24"/>
+    </row>
+    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="22"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="22"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="22"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="22"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="22"/>
+      <c r="K7" s="24"/>
+    </row>
+    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="22"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="22"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="22"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="22"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="22"/>
+      <c r="K8" s="24"/>
+    </row>
+    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="22"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="22"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="22"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="22"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="22"/>
+      <c r="K9" s="24"/>
+    </row>
+    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="22"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="22"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="22"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="22"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="22"/>
+      <c r="K10" s="24"/>
+    </row>
+    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="22"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="22"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="22"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="24"/>
+    </row>
+    <row r="12" spans="2:11" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="22"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="22"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="24"/>
+    </row>
+    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="22"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="I13" s="21"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="24"/>
+    </row>
+    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="22"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="24"/>
+    </row>
+    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B15" s="22"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="22"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="22"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="22"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="22"/>
+      <c r="K15" s="24"/>
+    </row>
+    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="22"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="22"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="22"/>
+      <c r="K16" s="24"/>
+    </row>
+    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="22"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="22"/>
+      <c r="K17" s="24"/>
+    </row>
+    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="22"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="22"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="22"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="22"/>
+      <c r="K18" s="24"/>
+    </row>
+    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="22"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="22"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="22"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="22"/>
+      <c r="K19" s="24"/>
+    </row>
+    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="22"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="22"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="22"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="22"/>
+      <c r="K20" s="24"/>
+    </row>
+    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="22"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="22"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="22"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="22"/>
+      <c r="K21" s="24"/>
+    </row>
+    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="22"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="22"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="22"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="22"/>
+      <c r="K22" s="24"/>
+    </row>
+    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="25"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="25"/>
+      <c r="K23" s="27"/>
+    </row>
+    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" s="20"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="22"/>
-      <c r="D3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="E3" s="22"/>
-      <c r="F3" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="G3" s="22"/>
-      <c r="H3" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="I3" s="22"/>
-      <c r="J3" s="30" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" s="22"/>
-    </row>
-    <row r="4" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B4" s="23"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="25"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="25"/>
-      <c r="H4" s="23"/>
-      <c r="I4" s="25"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="25"/>
-    </row>
-    <row r="5" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="23"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="25"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="25"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="25"/>
-    </row>
-    <row r="6" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="23"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="25"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="25"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="25"/>
-    </row>
-    <row r="7" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="23"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="25"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="25"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="25"/>
-    </row>
-    <row r="8" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="23"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="25"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="25"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="25"/>
-    </row>
-    <row r="9" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="23"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="25"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="25"/>
-    </row>
-    <row r="10" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="23"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="25"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="25"/>
-    </row>
-    <row r="11" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="23"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="25"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="25"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="25"/>
-    </row>
-    <row r="12" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="23"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="25"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="28"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="25"/>
-    </row>
-    <row r="13" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="23"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="E13" s="22"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="25"/>
-      <c r="H13" s="30" t="s">
-        <v>29</v>
-      </c>
-      <c r="I13" s="22"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="25"/>
-    </row>
-    <row r="14" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="23"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="25"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="25"/>
-    </row>
-    <row r="15" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="23"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="25"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="25"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="25"/>
-    </row>
-    <row r="16" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="25"/>
-    </row>
-    <row r="17" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="23"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="23"/>
-      <c r="K17" s="25"/>
-    </row>
-    <row r="18" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="23"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="25"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="25"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="23"/>
-      <c r="K18" s="25"/>
-    </row>
-    <row r="19" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="23"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="25"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="25"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="23"/>
-      <c r="K19" s="25"/>
-    </row>
-    <row r="20" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="23"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="25"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="25"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="23"/>
-      <c r="K20" s="25"/>
-    </row>
-    <row r="21" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="23"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="25"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="25"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="23"/>
-      <c r="K21" s="25"/>
-    </row>
-    <row r="22" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="23"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="25"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="25"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="23"/>
-      <c r="K22" s="25"/>
-    </row>
-    <row r="23" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="26"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="28"/>
-      <c r="J23" s="26"/>
-      <c r="K23" s="28"/>
-    </row>
-    <row r="24" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="30" t="s">
-        <v>28</v>
-      </c>
-      <c r="C24" s="21"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="H24" s="21"/>
-      <c r="I24" s="21"/>
-      <c r="J24" s="21"/>
-      <c r="K24" s="22"/>
+      <c r="H24" s="20"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="20"/>
+      <c r="K24" s="21"/>
     </row>
     <row r="25" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="25"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="24"/>
     </row>
     <row r="26" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="23"/>
-      <c r="C26" s="24"/>
-      <c r="D26" s="24"/>
-      <c r="E26" s="24"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="24"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="25"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="24"/>
     </row>
     <row r="27" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="23"/>
-      <c r="C27" s="24"/>
-      <c r="D27" s="24"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="24"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="25"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="22"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="24"/>
     </row>
     <row r="28" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="23"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="E28" s="24"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="24"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="25"/>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="22"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="24"/>
     </row>
     <row r="29" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="23"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="E29" s="24"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="24"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="25"/>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="22"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="24"/>
     </row>
     <row r="30" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="23"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="E30" s="24"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="23"/>
-      <c r="H30" s="24"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="25"/>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="22"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="24"/>
     </row>
     <row r="31" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="26"/>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
-      <c r="K31" s="28"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="26"/>
+      <c r="D31" s="26"/>
+      <c r="E31" s="26"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="25"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+      <c r="J31" s="26"/>
+      <c r="K31" s="27"/>
     </row>
     <row r="32" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="33" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="34" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="42"/>
-      <c r="F34" s="42"/>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-      <c r="K34" s="43"/>
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+      <c r="F34" s="41"/>
+      <c r="G34" s="41"/>
+      <c r="H34" s="41"/>
+      <c r="I34" s="41"/>
+      <c r="J34" s="41"/>
+      <c r="K34" s="42"/>
     </row>
     <row r="35" spans="2:11" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="36" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C36" s="22"/>
-      <c r="D36" s="30" t="s">
+      <c r="C36" s="21"/>
+      <c r="D36" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E36" s="22"/>
-      <c r="F36" s="30" t="s">
+      <c r="E36" s="21"/>
+      <c r="F36" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G36" s="22"/>
-      <c r="H36" s="30" t="s">
+      <c r="G36" s="21"/>
+      <c r="H36" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I36" s="22"/>
-      <c r="J36" s="30" t="s">
+      <c r="I36" s="21"/>
+      <c r="J36" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K36" s="22"/>
+      <c r="K36" s="21"/>
     </row>
     <row r="37" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B37" s="23"/>
-      <c r="C37" s="25"/>
-      <c r="D37" s="23"/>
-      <c r="E37" s="25"/>
-      <c r="F37" s="23"/>
-      <c r="G37" s="25"/>
-      <c r="H37" s="23"/>
-      <c r="I37" s="25"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="25"/>
+      <c r="B37" s="22"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="22"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="22"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="22"/>
+      <c r="K37" s="24"/>
     </row>
     <row r="38" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="23"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="23"/>
-      <c r="E38" s="25"/>
-      <c r="F38" s="23"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="23"/>
-      <c r="I38" s="25"/>
-      <c r="J38" s="23"/>
-      <c r="K38" s="25"/>
+      <c r="B38" s="22"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="22"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="22"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="22"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="22"/>
+      <c r="K38" s="24"/>
     </row>
     <row r="39" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B39" s="23"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="23"/>
-      <c r="E39" s="25"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="23"/>
-      <c r="I39" s="25"/>
-      <c r="J39" s="23"/>
-      <c r="K39" s="25"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="22"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="22"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="22"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="22"/>
+      <c r="K39" s="24"/>
     </row>
     <row r="40" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B40" s="23"/>
-      <c r="C40" s="25"/>
-      <c r="D40" s="23"/>
-      <c r="E40" s="25"/>
-      <c r="F40" s="23"/>
-      <c r="G40" s="25"/>
-      <c r="H40" s="23"/>
-      <c r="I40" s="25"/>
-      <c r="J40" s="23"/>
-      <c r="K40" s="25"/>
+      <c r="B40" s="22"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="22"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="22"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="22"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="22"/>
+      <c r="K40" s="24"/>
     </row>
     <row r="41" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="23"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="23"/>
-      <c r="E41" s="25"/>
-      <c r="F41" s="23"/>
-      <c r="G41" s="25"/>
-      <c r="H41" s="23"/>
-      <c r="I41" s="25"/>
-      <c r="J41" s="23"/>
-      <c r="K41" s="25"/>
+      <c r="B41" s="22"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="22"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="22"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="22"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="22"/>
+      <c r="K41" s="24"/>
     </row>
     <row r="42" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="23"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="23"/>
-      <c r="E42" s="25"/>
-      <c r="F42" s="23"/>
-      <c r="G42" s="25"/>
-      <c r="H42" s="23"/>
-      <c r="I42" s="25"/>
-      <c r="J42" s="23"/>
-      <c r="K42" s="25"/>
+      <c r="B42" s="22"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="22"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="22"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="22"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="22"/>
+      <c r="K42" s="24"/>
     </row>
     <row r="43" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B43" s="23"/>
-      <c r="C43" s="25"/>
-      <c r="D43" s="23"/>
-      <c r="E43" s="25"/>
-      <c r="F43" s="23"/>
-      <c r="G43" s="25"/>
-      <c r="H43" s="23"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="23"/>
-      <c r="K43" s="25"/>
+      <c r="B43" s="22"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="24"/>
     </row>
     <row r="44" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="23"/>
-      <c r="C44" s="25"/>
-      <c r="D44" s="23"/>
-      <c r="E44" s="25"/>
-      <c r="F44" s="23"/>
-      <c r="G44" s="25"/>
-      <c r="H44" s="23"/>
-      <c r="I44" s="25"/>
-      <c r="J44" s="23"/>
-      <c r="K44" s="25"/>
+      <c r="B44" s="22"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="22"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="22"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="22"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="22"/>
+      <c r="K44" s="24"/>
     </row>
     <row r="45" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="23"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="26"/>
-      <c r="E45" s="28"/>
-      <c r="F45" s="23"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="28"/>
-      <c r="J45" s="23"/>
-      <c r="K45" s="25"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="25"/>
+      <c r="E45" s="27"/>
+      <c r="F45" s="22"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="25"/>
+      <c r="I45" s="27"/>
+      <c r="J45" s="22"/>
+      <c r="K45" s="24"/>
     </row>
     <row r="46" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B46" s="23"/>
-      <c r="C46" s="25"/>
-      <c r="D46" s="30" t="s">
+      <c r="B46" s="22"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E46" s="22"/>
-      <c r="F46" s="23"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="30" t="s">
+      <c r="E46" s="21"/>
+      <c r="F46" s="22"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="29" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="22"/>
-      <c r="J46" s="23"/>
-      <c r="K46" s="25"/>
+      <c r="I46" s="21"/>
+      <c r="J46" s="22"/>
+      <c r="K46" s="24"/>
     </row>
     <row r="47" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="23"/>
-      <c r="C47" s="25"/>
-      <c r="D47" s="23"/>
-      <c r="E47" s="25"/>
-      <c r="F47" s="23"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="23"/>
-      <c r="I47" s="25"/>
-      <c r="J47" s="23"/>
-      <c r="K47" s="25"/>
+      <c r="B47" s="22"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="22"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="22"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="22"/>
+      <c r="K47" s="24"/>
     </row>
     <row r="48" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B48" s="23"/>
-      <c r="C48" s="25"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="25"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="25"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="25"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="25"/>
+      <c r="B48" s="22"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="22"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="22"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="22"/>
+      <c r="K48" s="24"/>
     </row>
     <row r="49" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="23"/>
-      <c r="C49" s="25"/>
-      <c r="D49" s="23"/>
-      <c r="E49" s="25"/>
-      <c r="F49" s="23"/>
-      <c r="G49" s="25"/>
-      <c r="H49" s="23"/>
-      <c r="I49" s="25"/>
-      <c r="J49" s="23"/>
-      <c r="K49" s="25"/>
+      <c r="B49" s="22"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="22"/>
+      <c r="K49" s="24"/>
     </row>
     <row r="50" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="23"/>
-      <c r="C50" s="25"/>
-      <c r="D50" s="23"/>
-      <c r="E50" s="25"/>
-      <c r="F50" s="23"/>
-      <c r="G50" s="25"/>
-      <c r="H50" s="23"/>
-      <c r="I50" s="25"/>
-      <c r="J50" s="23"/>
-      <c r="K50" s="25"/>
+      <c r="B50" s="22"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="22"/>
+      <c r="K50" s="24"/>
     </row>
     <row r="51" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="23"/>
-      <c r="C51" s="25"/>
-      <c r="D51" s="23"/>
-      <c r="E51" s="25"/>
-      <c r="F51" s="23"/>
-      <c r="G51" s="25"/>
-      <c r="H51" s="23"/>
-      <c r="I51" s="25"/>
-      <c r="J51" s="23"/>
-      <c r="K51" s="25"/>
+      <c r="B51" s="22"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="22"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="22"/>
+      <c r="I51" s="24"/>
+      <c r="J51" s="22"/>
+      <c r="K51" s="24"/>
     </row>
     <row r="52" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="23"/>
-      <c r="C52" s="25"/>
-      <c r="D52" s="23"/>
-      <c r="E52" s="25"/>
-      <c r="F52" s="23"/>
-      <c r="G52" s="25"/>
-      <c r="H52" s="23"/>
-      <c r="I52" s="25"/>
-      <c r="J52" s="23"/>
-      <c r="K52" s="25"/>
+      <c r="B52" s="22"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="22"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="22"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="22"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="22"/>
+      <c r="K52" s="24"/>
     </row>
     <row r="53" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="23"/>
-      <c r="C53" s="25"/>
-      <c r="D53" s="23"/>
-      <c r="E53" s="25"/>
-      <c r="F53" s="23"/>
-      <c r="G53" s="25"/>
-      <c r="H53" s="23"/>
-      <c r="I53" s="25"/>
-      <c r="J53" s="23"/>
-      <c r="K53" s="25"/>
+      <c r="B53" s="22"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="22"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="22"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="22"/>
+      <c r="I53" s="24"/>
+      <c r="J53" s="22"/>
+      <c r="K53" s="24"/>
     </row>
     <row r="54" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="23"/>
-      <c r="C54" s="25"/>
-      <c r="D54" s="23"/>
-      <c r="E54" s="25"/>
-      <c r="F54" s="23"/>
-      <c r="G54" s="25"/>
-      <c r="H54" s="23"/>
-      <c r="I54" s="25"/>
-      <c r="J54" s="23"/>
-      <c r="K54" s="25"/>
+      <c r="B54" s="22"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="22"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="22"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="22"/>
+      <c r="I54" s="24"/>
+      <c r="J54" s="22"/>
+      <c r="K54" s="24"/>
     </row>
     <row r="55" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B55" s="23"/>
-      <c r="C55" s="25"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="25"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="25"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="25"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="25"/>
+      <c r="B55" s="22"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="22"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="22"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="22"/>
+      <c r="I55" s="24"/>
+      <c r="J55" s="22"/>
+      <c r="K55" s="24"/>
     </row>
     <row r="56" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="26"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="26"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="26"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="26"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="26"/>
-      <c r="K56" s="28"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="27"/>
+      <c r="D56" s="25"/>
+      <c r="E56" s="27"/>
+      <c r="F56" s="25"/>
+      <c r="G56" s="27"/>
+      <c r="H56" s="25"/>
+      <c r="I56" s="27"/>
+      <c r="J56" s="25"/>
+      <c r="K56" s="27"/>
     </row>
     <row r="57" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B57" s="30" t="s">
+      <c r="B57" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C57" s="21"/>
-      <c r="D57" s="21"/>
-      <c r="E57" s="21"/>
-      <c r="F57" s="22"/>
-      <c r="G57" s="30" t="s">
+      <c r="C57" s="20"/>
+      <c r="D57" s="20"/>
+      <c r="E57" s="20"/>
+      <c r="F57" s="21"/>
+      <c r="G57" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H57" s="21"/>
-      <c r="I57" s="21"/>
-      <c r="J57" s="21"/>
-      <c r="K57" s="22"/>
+      <c r="H57" s="20"/>
+      <c r="I57" s="20"/>
+      <c r="J57" s="20"/>
+      <c r="K57" s="21"/>
     </row>
     <row r="58" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="23"/>
-      <c r="C58" s="24"/>
-      <c r="D58" s="24"/>
-      <c r="E58" s="24"/>
-      <c r="F58" s="25"/>
-      <c r="G58" s="23"/>
-      <c r="H58" s="24"/>
-      <c r="I58" s="24"/>
-      <c r="J58" s="24"/>
-      <c r="K58" s="25"/>
+      <c r="B58" s="22"/>
+      <c r="C58" s="23"/>
+      <c r="D58" s="23"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="23"/>
+      <c r="I58" s="23"/>
+      <c r="J58" s="23"/>
+      <c r="K58" s="24"/>
     </row>
     <row r="59" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="23"/>
-      <c r="C59" s="24"/>
-      <c r="D59" s="24"/>
-      <c r="E59" s="24"/>
-      <c r="F59" s="25"/>
-      <c r="G59" s="23"/>
-      <c r="H59" s="24"/>
-      <c r="I59" s="24"/>
-      <c r="J59" s="24"/>
-      <c r="K59" s="25"/>
+      <c r="B59" s="22"/>
+      <c r="C59" s="23"/>
+      <c r="D59" s="23"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="23"/>
+      <c r="I59" s="23"/>
+      <c r="J59" s="23"/>
+      <c r="K59" s="24"/>
     </row>
     <row r="60" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="23"/>
-      <c r="C60" s="24"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="24"/>
-      <c r="F60" s="25"/>
-      <c r="G60" s="23"/>
-      <c r="H60" s="24"/>
-      <c r="I60" s="24"/>
-      <c r="J60" s="24"/>
-      <c r="K60" s="25"/>
+      <c r="B60" s="22"/>
+      <c r="C60" s="23"/>
+      <c r="D60" s="23"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="22"/>
+      <c r="H60" s="23"/>
+      <c r="I60" s="23"/>
+      <c r="J60" s="23"/>
+      <c r="K60" s="24"/>
     </row>
     <row r="61" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B61" s="23"/>
-      <c r="C61" s="24"/>
-      <c r="D61" s="24"/>
-      <c r="E61" s="24"/>
-      <c r="F61" s="25"/>
-      <c r="G61" s="23"/>
-      <c r="H61" s="24"/>
-      <c r="I61" s="24"/>
-      <c r="J61" s="24"/>
-      <c r="K61" s="25"/>
+      <c r="B61" s="22"/>
+      <c r="C61" s="23"/>
+      <c r="D61" s="23"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="22"/>
+      <c r="H61" s="23"/>
+      <c r="I61" s="23"/>
+      <c r="J61" s="23"/>
+      <c r="K61" s="24"/>
     </row>
     <row r="62" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="23"/>
-      <c r="C62" s="24"/>
-      <c r="D62" s="24"/>
-      <c r="E62" s="24"/>
-      <c r="F62" s="25"/>
-      <c r="G62" s="23"/>
-      <c r="H62" s="24"/>
-      <c r="I62" s="24"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="25"/>
+      <c r="B62" s="22"/>
+      <c r="C62" s="23"/>
+      <c r="D62" s="23"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="22"/>
+      <c r="H62" s="23"/>
+      <c r="I62" s="23"/>
+      <c r="J62" s="23"/>
+      <c r="K62" s="24"/>
     </row>
     <row r="63" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="23"/>
-      <c r="C63" s="24"/>
-      <c r="D63" s="24"/>
-      <c r="E63" s="24"/>
-      <c r="F63" s="25"/>
-      <c r="G63" s="23"/>
-      <c r="H63" s="24"/>
-      <c r="I63" s="24"/>
-      <c r="J63" s="24"/>
-      <c r="K63" s="25"/>
+      <c r="B63" s="22"/>
+      <c r="C63" s="23"/>
+      <c r="D63" s="23"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="22"/>
+      <c r="H63" s="23"/>
+      <c r="I63" s="23"/>
+      <c r="J63" s="23"/>
+      <c r="K63" s="24"/>
     </row>
     <row r="64" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="26"/>
-      <c r="C64" s="27"/>
-      <c r="D64" s="27"/>
-      <c r="E64" s="27"/>
-      <c r="F64" s="28"/>
-      <c r="G64" s="26"/>
-      <c r="H64" s="27"/>
-      <c r="I64" s="27"/>
-      <c r="J64" s="27"/>
-      <c r="K64" s="28"/>
+      <c r="B64" s="25"/>
+      <c r="C64" s="26"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="27"/>
+      <c r="G64" s="25"/>
+      <c r="H64" s="26"/>
+      <c r="I64" s="26"/>
+      <c r="J64" s="26"/>
+      <c r="K64" s="27"/>
     </row>
     <row r="65" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="66" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="67" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B67" s="40" t="s">
+      <c r="B67" s="44" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="18"/>
@@ -7511,370 +8001,370 @@
     </row>
     <row r="68" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="69" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="30" t="s">
+      <c r="B69" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C69" s="22"/>
-      <c r="D69" s="30" t="s">
+      <c r="C69" s="21"/>
+      <c r="D69" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="E69" s="22"/>
-      <c r="F69" s="30" t="s">
+      <c r="E69" s="21"/>
+      <c r="F69" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G69" s="22"/>
-      <c r="H69" s="30" t="s">
+      <c r="G69" s="21"/>
+      <c r="H69" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="I69" s="22"/>
-      <c r="J69" s="30" t="s">
+      <c r="I69" s="21"/>
+      <c r="J69" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K69" s="22"/>
+      <c r="K69" s="21"/>
     </row>
     <row r="70" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B70" s="23"/>
-      <c r="C70" s="25"/>
-      <c r="D70" s="23"/>
-      <c r="E70" s="25"/>
-      <c r="F70" s="23"/>
-      <c r="G70" s="25"/>
-      <c r="H70" s="23"/>
-      <c r="I70" s="25"/>
-      <c r="J70" s="23"/>
-      <c r="K70" s="25"/>
+      <c r="B70" s="22"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="22"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="22"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="22"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="22"/>
+      <c r="K70" s="24"/>
     </row>
     <row r="71" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="23"/>
-      <c r="C71" s="25"/>
-      <c r="D71" s="23"/>
-      <c r="E71" s="25"/>
-      <c r="F71" s="23"/>
-      <c r="G71" s="25"/>
-      <c r="H71" s="23"/>
-      <c r="I71" s="25"/>
-      <c r="J71" s="23"/>
-      <c r="K71" s="25"/>
+      <c r="B71" s="22"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="22"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="22"/>
+      <c r="G71" s="24"/>
+      <c r="H71" s="22"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="22"/>
+      <c r="K71" s="24"/>
     </row>
     <row r="72" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="23"/>
-      <c r="C72" s="25"/>
-      <c r="D72" s="23"/>
-      <c r="E72" s="25"/>
-      <c r="F72" s="23"/>
-      <c r="G72" s="25"/>
-      <c r="H72" s="23"/>
-      <c r="I72" s="25"/>
-      <c r="J72" s="23"/>
-      <c r="K72" s="25"/>
+      <c r="B72" s="22"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="22"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="22"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="22"/>
+      <c r="I72" s="24"/>
+      <c r="J72" s="22"/>
+      <c r="K72" s="24"/>
     </row>
     <row r="73" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="23"/>
-      <c r="C73" s="25"/>
-      <c r="D73" s="23"/>
-      <c r="E73" s="25"/>
-      <c r="F73" s="23"/>
-      <c r="G73" s="25"/>
-      <c r="H73" s="23"/>
-      <c r="I73" s="25"/>
-      <c r="J73" s="23"/>
-      <c r="K73" s="25"/>
+      <c r="B73" s="22"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="22"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="22"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="22"/>
+      <c r="I73" s="24"/>
+      <c r="J73" s="22"/>
+      <c r="K73" s="24"/>
     </row>
     <row r="74" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B74" s="23"/>
-      <c r="C74" s="25"/>
-      <c r="D74" s="23"/>
-      <c r="E74" s="25"/>
-      <c r="F74" s="23"/>
-      <c r="G74" s="25"/>
-      <c r="H74" s="23"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="23"/>
-      <c r="K74" s="25"/>
+      <c r="B74" s="22"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="24"/>
+      <c r="J74" s="22"/>
+      <c r="K74" s="24"/>
     </row>
     <row r="75" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B75" s="23"/>
-      <c r="C75" s="25"/>
-      <c r="D75" s="23"/>
-      <c r="E75" s="25"/>
-      <c r="F75" s="23"/>
-      <c r="G75" s="25"/>
-      <c r="H75" s="23"/>
-      <c r="I75" s="25"/>
-      <c r="J75" s="23"/>
-      <c r="K75" s="25"/>
+      <c r="B75" s="22"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="24"/>
+      <c r="J75" s="22"/>
+      <c r="K75" s="24"/>
     </row>
     <row r="76" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="23"/>
-      <c r="C76" s="25"/>
-      <c r="D76" s="23"/>
-      <c r="E76" s="25"/>
-      <c r="F76" s="23"/>
-      <c r="G76" s="25"/>
-      <c r="H76" s="23"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="23"/>
-      <c r="K76" s="25"/>
+      <c r="B76" s="22"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="22"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="22"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="22"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="22"/>
+      <c r="K76" s="24"/>
     </row>
     <row r="77" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="23"/>
-      <c r="C77" s="25"/>
-      <c r="D77" s="23"/>
-      <c r="E77" s="25"/>
-      <c r="F77" s="23"/>
-      <c r="G77" s="25"/>
-      <c r="H77" s="23"/>
-      <c r="I77" s="25"/>
-      <c r="J77" s="23"/>
-      <c r="K77" s="25"/>
+      <c r="B77" s="22"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="22"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="22"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="22"/>
+      <c r="I77" s="24"/>
+      <c r="J77" s="22"/>
+      <c r="K77" s="24"/>
     </row>
     <row r="78" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="23"/>
-      <c r="C78" s="25"/>
-      <c r="D78" s="26"/>
-      <c r="E78" s="28"/>
-      <c r="F78" s="23"/>
-      <c r="G78" s="25"/>
-      <c r="H78" s="26"/>
-      <c r="I78" s="28"/>
-      <c r="J78" s="23"/>
-      <c r="K78" s="25"/>
+      <c r="B78" s="22"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="25"/>
+      <c r="E78" s="27"/>
+      <c r="F78" s="22"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="25"/>
+      <c r="I78" s="27"/>
+      <c r="J78" s="22"/>
+      <c r="K78" s="24"/>
     </row>
     <row r="79" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B79" s="23"/>
-      <c r="C79" s="25"/>
-      <c r="D79" s="30" t="s">
+      <c r="B79" s="22"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E79" s="22"/>
-      <c r="F79" s="23"/>
-      <c r="G79" s="25"/>
-      <c r="H79" s="30" t="s">
+      <c r="E79" s="21"/>
+      <c r="F79" s="22"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="I79" s="22"/>
-      <c r="J79" s="23"/>
-      <c r="K79" s="25"/>
+      <c r="I79" s="21"/>
+      <c r="J79" s="22"/>
+      <c r="K79" s="24"/>
     </row>
     <row r="80" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="23"/>
-      <c r="C80" s="25"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="25"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="25"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="25"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="25"/>
+      <c r="B80" s="22"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="22"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="22"/>
+      <c r="G80" s="24"/>
+      <c r="H80" s="22"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="22"/>
+      <c r="K80" s="24"/>
     </row>
     <row r="81" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B81" s="23"/>
-      <c r="C81" s="25"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="25"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="25"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="25"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="25"/>
+      <c r="B81" s="22"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="22"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="22"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="22"/>
+      <c r="I81" s="24"/>
+      <c r="J81" s="22"/>
+      <c r="K81" s="24"/>
     </row>
     <row r="82" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="23"/>
-      <c r="C82" s="25"/>
-      <c r="D82" s="23"/>
-      <c r="E82" s="25"/>
-      <c r="F82" s="23"/>
-      <c r="G82" s="25"/>
-      <c r="H82" s="23"/>
-      <c r="I82" s="25"/>
-      <c r="J82" s="23"/>
-      <c r="K82" s="25"/>
+      <c r="B82" s="22"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="22"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="22"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="22"/>
+      <c r="I82" s="24"/>
+      <c r="J82" s="22"/>
+      <c r="K82" s="24"/>
     </row>
     <row r="83" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B83" s="23"/>
-      <c r="C83" s="25"/>
-      <c r="D83" s="23"/>
-      <c r="E83" s="25"/>
-      <c r="F83" s="23"/>
-      <c r="G83" s="25"/>
-      <c r="H83" s="23"/>
-      <c r="I83" s="25"/>
-      <c r="J83" s="23"/>
-      <c r="K83" s="25"/>
+      <c r="B83" s="22"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="24"/>
+      <c r="J83" s="22"/>
+      <c r="K83" s="24"/>
     </row>
     <row r="84" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="23"/>
-      <c r="C84" s="25"/>
-      <c r="D84" s="23"/>
-      <c r="E84" s="25"/>
-      <c r="F84" s="23"/>
-      <c r="G84" s="25"/>
-      <c r="H84" s="23"/>
-      <c r="I84" s="25"/>
-      <c r="J84" s="23"/>
-      <c r="K84" s="25"/>
+      <c r="B84" s="22"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="24"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="22"/>
+      <c r="K84" s="24"/>
     </row>
     <row r="85" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B85" s="23"/>
-      <c r="C85" s="25"/>
-      <c r="D85" s="23"/>
-      <c r="E85" s="25"/>
-      <c r="F85" s="23"/>
-      <c r="G85" s="25"/>
-      <c r="H85" s="23"/>
-      <c r="I85" s="25"/>
-      <c r="J85" s="23"/>
-      <c r="K85" s="25"/>
+      <c r="B85" s="22"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="22"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="22"/>
+      <c r="I85" s="24"/>
+      <c r="J85" s="22"/>
+      <c r="K85" s="24"/>
     </row>
     <row r="86" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="23"/>
-      <c r="C86" s="25"/>
-      <c r="D86" s="23"/>
-      <c r="E86" s="25"/>
-      <c r="F86" s="23"/>
-      <c r="G86" s="25"/>
-      <c r="H86" s="23"/>
-      <c r="I86" s="25"/>
-      <c r="J86" s="23"/>
-      <c r="K86" s="25"/>
+      <c r="B86" s="22"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="22"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="22"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="22"/>
+      <c r="I86" s="24"/>
+      <c r="J86" s="22"/>
+      <c r="K86" s="24"/>
     </row>
     <row r="87" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B87" s="23"/>
-      <c r="C87" s="25"/>
-      <c r="D87" s="23"/>
-      <c r="E87" s="25"/>
-      <c r="F87" s="23"/>
-      <c r="G87" s="25"/>
-      <c r="H87" s="23"/>
-      <c r="I87" s="25"/>
-      <c r="J87" s="23"/>
-      <c r="K87" s="25"/>
+      <c r="B87" s="22"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="22"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="22"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="22"/>
+      <c r="I87" s="24"/>
+      <c r="J87" s="22"/>
+      <c r="K87" s="24"/>
     </row>
     <row r="88" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B88" s="23"/>
-      <c r="C88" s="25"/>
-      <c r="D88" s="23"/>
-      <c r="E88" s="25"/>
-      <c r="F88" s="23"/>
-      <c r="G88" s="25"/>
-      <c r="H88" s="23"/>
-      <c r="I88" s="25"/>
-      <c r="J88" s="23"/>
-      <c r="K88" s="25"/>
+      <c r="B88" s="22"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="22"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="22"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="22"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="22"/>
+      <c r="K88" s="24"/>
     </row>
     <row r="89" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B89" s="26"/>
-      <c r="C89" s="28"/>
-      <c r="D89" s="26"/>
-      <c r="E89" s="28"/>
-      <c r="F89" s="26"/>
-      <c r="G89" s="28"/>
-      <c r="H89" s="26"/>
-      <c r="I89" s="28"/>
-      <c r="J89" s="26"/>
-      <c r="K89" s="28"/>
+      <c r="B89" s="25"/>
+      <c r="C89" s="27"/>
+      <c r="D89" s="25"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="25"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="25"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="25"/>
+      <c r="K89" s="27"/>
     </row>
     <row r="90" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B90" s="30" t="s">
+      <c r="B90" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C90" s="21"/>
-      <c r="D90" s="21"/>
-      <c r="E90" s="21"/>
-      <c r="F90" s="22"/>
-      <c r="G90" s="30" t="s">
+      <c r="C90" s="20"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="20"/>
+      <c r="F90" s="21"/>
+      <c r="G90" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="H90" s="21"/>
-      <c r="I90" s="21"/>
-      <c r="J90" s="21"/>
-      <c r="K90" s="22"/>
+      <c r="H90" s="20"/>
+      <c r="I90" s="20"/>
+      <c r="J90" s="20"/>
+      <c r="K90" s="21"/>
     </row>
     <row r="91" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B91" s="23"/>
-      <c r="C91" s="24"/>
-      <c r="D91" s="24"/>
-      <c r="E91" s="24"/>
-      <c r="F91" s="25"/>
-      <c r="G91" s="23"/>
-      <c r="H91" s="24"/>
-      <c r="I91" s="24"/>
-      <c r="J91" s="24"/>
-      <c r="K91" s="25"/>
+      <c r="B91" s="22"/>
+      <c r="C91" s="23"/>
+      <c r="D91" s="23"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="22"/>
+      <c r="H91" s="23"/>
+      <c r="I91" s="23"/>
+      <c r="J91" s="23"/>
+      <c r="K91" s="24"/>
     </row>
     <row r="92" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B92" s="23"/>
-      <c r="C92" s="24"/>
-      <c r="D92" s="24"/>
-      <c r="E92" s="24"/>
-      <c r="F92" s="25"/>
-      <c r="G92" s="23"/>
-      <c r="H92" s="24"/>
-      <c r="I92" s="24"/>
-      <c r="J92" s="24"/>
-      <c r="K92" s="25"/>
+      <c r="B92" s="22"/>
+      <c r="C92" s="23"/>
+      <c r="D92" s="23"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="22"/>
+      <c r="H92" s="23"/>
+      <c r="I92" s="23"/>
+      <c r="J92" s="23"/>
+      <c r="K92" s="24"/>
     </row>
     <row r="93" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B93" s="23"/>
-      <c r="C93" s="24"/>
-      <c r="D93" s="24"/>
-      <c r="E93" s="24"/>
-      <c r="F93" s="25"/>
-      <c r="G93" s="23"/>
-      <c r="H93" s="24"/>
-      <c r="I93" s="24"/>
-      <c r="J93" s="24"/>
-      <c r="K93" s="25"/>
+      <c r="B93" s="22"/>
+      <c r="C93" s="23"/>
+      <c r="D93" s="23"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="22"/>
+      <c r="H93" s="23"/>
+      <c r="I93" s="23"/>
+      <c r="J93" s="23"/>
+      <c r="K93" s="24"/>
     </row>
     <row r="94" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B94" s="23"/>
-      <c r="C94" s="24"/>
-      <c r="D94" s="24"/>
-      <c r="E94" s="24"/>
-      <c r="F94" s="25"/>
-      <c r="G94" s="23"/>
-      <c r="H94" s="24"/>
-      <c r="I94" s="24"/>
-      <c r="J94" s="24"/>
-      <c r="K94" s="25"/>
+      <c r="B94" s="22"/>
+      <c r="C94" s="23"/>
+      <c r="D94" s="23"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="22"/>
+      <c r="H94" s="23"/>
+      <c r="I94" s="23"/>
+      <c r="J94" s="23"/>
+      <c r="K94" s="24"/>
     </row>
     <row r="95" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B95" s="23"/>
-      <c r="C95" s="24"/>
-      <c r="D95" s="24"/>
-      <c r="E95" s="24"/>
-      <c r="F95" s="25"/>
-      <c r="G95" s="23"/>
-      <c r="H95" s="24"/>
-      <c r="I95" s="24"/>
-      <c r="J95" s="24"/>
-      <c r="K95" s="25"/>
+      <c r="B95" s="22"/>
+      <c r="C95" s="23"/>
+      <c r="D95" s="23"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="22"/>
+      <c r="H95" s="23"/>
+      <c r="I95" s="23"/>
+      <c r="J95" s="23"/>
+      <c r="K95" s="24"/>
     </row>
     <row r="96" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B96" s="23"/>
-      <c r="C96" s="24"/>
-      <c r="D96" s="24"/>
-      <c r="E96" s="24"/>
-      <c r="F96" s="25"/>
-      <c r="G96" s="23"/>
-      <c r="H96" s="24"/>
-      <c r="I96" s="24"/>
-      <c r="J96" s="24"/>
-      <c r="K96" s="25"/>
+      <c r="B96" s="22"/>
+      <c r="C96" s="23"/>
+      <c r="D96" s="23"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="22"/>
+      <c r="H96" s="23"/>
+      <c r="I96" s="23"/>
+      <c r="J96" s="23"/>
+      <c r="K96" s="24"/>
     </row>
     <row r="97" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B97" s="26"/>
-      <c r="C97" s="27"/>
-      <c r="D97" s="27"/>
-      <c r="E97" s="27"/>
-      <c r="F97" s="28"/>
-      <c r="G97" s="26"/>
-      <c r="H97" s="27"/>
-      <c r="I97" s="27"/>
-      <c r="J97" s="27"/>
-      <c r="K97" s="28"/>
+      <c r="B97" s="25"/>
+      <c r="C97" s="26"/>
+      <c r="D97" s="26"/>
+      <c r="E97" s="26"/>
+      <c r="F97" s="27"/>
+      <c r="G97" s="25"/>
+      <c r="H97" s="26"/>
+      <c r="I97" s="26"/>
+      <c r="J97" s="26"/>
+      <c r="K97" s="27"/>
     </row>
     <row r="98" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="99" spans="2:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -8781,24 +9271,6 @@
     <row r="1000" ht="14.25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="B1:K1"/>
-    <mergeCell ref="B3:C23"/>
-    <mergeCell ref="D3:E12"/>
-    <mergeCell ref="F3:G23"/>
-    <mergeCell ref="H3:I12"/>
-    <mergeCell ref="J3:K23"/>
-    <mergeCell ref="H13:I23"/>
-    <mergeCell ref="D13:E23"/>
-    <mergeCell ref="H36:I45"/>
-    <mergeCell ref="H46:I56"/>
-    <mergeCell ref="B24:F31"/>
-    <mergeCell ref="B36:C56"/>
-    <mergeCell ref="D36:E45"/>
-    <mergeCell ref="F36:G56"/>
-    <mergeCell ref="G24:K31"/>
-    <mergeCell ref="B34:K34"/>
-    <mergeCell ref="J36:K56"/>
-    <mergeCell ref="D46:E56"/>
     <mergeCell ref="B90:F97"/>
     <mergeCell ref="B57:F64"/>
     <mergeCell ref="G57:K64"/>
@@ -8811,6 +9283,24 @@
     <mergeCell ref="D69:E78"/>
     <mergeCell ref="D79:E89"/>
     <mergeCell ref="B69:C89"/>
+    <mergeCell ref="H36:I45"/>
+    <mergeCell ref="H46:I56"/>
+    <mergeCell ref="B24:F31"/>
+    <mergeCell ref="B36:C56"/>
+    <mergeCell ref="D36:E45"/>
+    <mergeCell ref="F36:G56"/>
+    <mergeCell ref="G24:K31"/>
+    <mergeCell ref="B34:K34"/>
+    <mergeCell ref="J36:K56"/>
+    <mergeCell ref="D46:E56"/>
+    <mergeCell ref="B1:K1"/>
+    <mergeCell ref="B3:C23"/>
+    <mergeCell ref="D3:E12"/>
+    <mergeCell ref="F3:G23"/>
+    <mergeCell ref="H3:I12"/>
+    <mergeCell ref="J3:K23"/>
+    <mergeCell ref="H13:I23"/>
+    <mergeCell ref="D13:E23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup paperSize="9" orientation="landscape"/>
